--- a/classement_whist_2023_2025.xlsx
+++ b/classement_whist_2023_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/A20B8382962B136A/Bureau/loisir/whist/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a20b8382962b136a/Bureau/loisir/whist/projet_application_streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="458" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAF6411D-8159-42C5-B4B6-5BA68D7526E7}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13DF6C5-6015-4B59-88A5-06D86B8E0493}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All stat" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB126"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G1" s="1">
         <f t="shared" ref="G1" si="2">IF(H2&gt;19,G2/H2,"/")</f>
-        <v>7.1503800217155264</v>
+        <v>7.1890574214517873</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" si="27"/>
-        <v>6585.5</v>
+        <v>6635.5</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="27"/>
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="27"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="G7" s="15">
         <f t="shared" ref="G7" si="94">G8/H8</f>
-        <v>7.4053030303030303</v>
+        <v>7.4937185929648242</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>2</v>
@@ -2696,11 +2696,11 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" si="120"/>
-        <v>2932.5</v>
+        <v>2982.5</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="120"/>
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="120"/>
@@ -2904,118 +2904,118 @@
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26" t="s">
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26" t="s">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26" t="s">
+      <c r="V9" s="27"/>
+      <c r="W9" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26" t="s">
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26" t="s">
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26" t="s">
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26" t="s">
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26" t="s">
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26" t="s">
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="27" t="s">
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27" t="s">
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27" t="s">
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27" t="s">
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27" t="s">
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27" t="s">
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27" t="s">
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="26" t="s">
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26" t="s">
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26" t="s">
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="BF9" s="26"/>
+      <c r="BF9" s="27"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -3035,6 +3035,12 @@
     <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>112</v>
+      </c>
+      <c r="G13" s="1">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.3">
@@ -4365,10 +4371,10 @@
         <v>boris</v>
       </c>
       <c r="BN48" s="1" t="str">
-        <v>7.150</v>
+        <v>7.189</v>
       </c>
       <c r="BO48" s="1">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="BQ48" s="1">
         <v>2</v>
@@ -4386,7 +4392,7 @@
         <v>boris</v>
       </c>
       <c r="BW48" s="1">
-        <v>7.1503800217155264</v>
+        <v>7.1890574214517873</v>
       </c>
     </row>
     <row r="49" spans="1:75" x14ac:dyDescent="0.3">
@@ -5250,7 +5256,7 @@
       </c>
       <c r="BJ59" s="1">
         <f>AVERAGE(C1:BF1)</f>
-        <v>5.0162132370455375</v>
+        <v>5.0182488896632371</v>
       </c>
       <c r="BL59" s="1">
         <v>13</v>
@@ -7040,10 +7046,10 @@
         <v>boris</v>
       </c>
       <c r="BX80" s="1">
-        <v>7.15</v>
+        <v>7.1890000000000001</v>
       </c>
       <c r="BY80" s="1">
-        <v>921</v>
+        <v>923</v>
       </c>
     </row>
     <row r="81" spans="1:77" x14ac:dyDescent="0.3">
@@ -9208,16 +9214,16 @@
         <v>boris</v>
       </c>
       <c r="BW106" s="1">
-        <v>7.1503800217155264</v>
+        <v>7.1890574214517873</v>
       </c>
       <c r="BX106" s="1">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="CA106" s="1" t="str">
         <v>boris</v>
       </c>
       <c r="CB106" s="1">
-        <v>7.1503800217155264</v>
+        <v>7.1890574214517873</v>
       </c>
     </row>
     <row r="107" spans="1:80" x14ac:dyDescent="0.3">
@@ -10378,18 +10384,6 @@
     <sortCondition descending="1" ref="B115:B126"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BC9:BD9"/>
     <mergeCell ref="BE9:BF9"/>
@@ -10406,6 +10400,18 @@
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
   </mergeCells>
   <conditionalFormatting sqref="C1 E1 G1 I1 K1 M1 O1 Q1 S1 U1 W1 Y1 AA1 AC1 AE1 AG1 AI1 AK1 AM1 AO1 AQ1 AS1 AU1 AW1 AY1 BA1 BC1 BE1 C9:AM9 AO9 AQ9 AS9 AU9 AW9 AY9 BA9 BC9 BE9">
     <cfRule type="expression" dxfId="24" priority="41" stopIfTrue="1">
@@ -10508,8 +10514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D977F6-AD3F-47F0-926D-61192148887D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="99" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10568,10 +10574,10 @@
         <v>boris</v>
       </c>
       <c r="C3" s="25" t="str">
-        <v>7.150</v>
+        <v>7.189</v>
       </c>
       <c r="D3" s="25">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="F3" t="str">
         <v>entre 1 et 10</v>

--- a/classement_whist_2023_2025.xlsx
+++ b/classement_whist_2023_2025.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="461" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13DF6C5-6015-4B59-88A5-06D86B8E0493}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All stat" sheetId="1" r:id="rId1"/>
@@ -1127,7 +1127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -10514,8 +10514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D977F6-AD3F-47F0-926D-61192148887D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/classement_whist_2023_2025.xlsx
+++ b/classement_whist_2023_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a20b8382962b136a/Bureau/loisir/whist/projet_application_streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="461" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F13DF6C5-6015-4B59-88A5-06D86B8E0493}"/>
+  <xr:revisionPtr revIDLastSave="462" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CF0E86-ECD6-416A-BD3E-C10961053342}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All stat" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB126"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G1" s="1">
         <f t="shared" ref="G1" si="2">IF(H2&gt;19,G2/H2,"/")</f>
-        <v>7.1890574214517873</v>
+        <v>7.1503800217155264</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" si="27"/>
-        <v>6635.5</v>
+        <v>6585.5</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="27"/>
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="27"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="G7" s="15">
         <f t="shared" ref="G7" si="94">G8/H8</f>
-        <v>7.4937185929648242</v>
+        <v>7.4053030303030303</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>2</v>
@@ -2696,11 +2696,11 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" si="120"/>
-        <v>2982.5</v>
+        <v>2932.5</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="120"/>
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="120"/>
@@ -2904,118 +2904,118 @@
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
+      <c r="N9" s="26"/>
+      <c r="O9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27" t="s">
+      <c r="R9" s="26"/>
+      <c r="S9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27" t="s">
+      <c r="T9" s="26"/>
+      <c r="U9" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27" t="s">
+      <c r="V9" s="26"/>
+      <c r="W9" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27" t="s">
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27" t="s">
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27" t="s">
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27" t="s">
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27" t="s">
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27" t="s">
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="26" t="s">
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26" t="s">
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26" t="s">
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26" t="s">
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26" t="s">
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26" t="s">
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="27" t="s">
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27" t="s">
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27" t="s">
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="BF9" s="27"/>
+      <c r="BF9" s="26"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -3035,12 +3035,6 @@
     <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>112</v>
-      </c>
-      <c r="G13" s="1">
-        <v>50</v>
-      </c>
-      <c r="H13" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.3">
@@ -4371,10 +4365,10 @@
         <v>boris</v>
       </c>
       <c r="BN48" s="1" t="str">
-        <v>7.189</v>
+        <v>7.150</v>
       </c>
       <c r="BO48" s="1">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="BQ48" s="1">
         <v>2</v>
@@ -4392,7 +4386,7 @@
         <v>boris</v>
       </c>
       <c r="BW48" s="1">
-        <v>7.1890574214517873</v>
+        <v>7.1503800217155264</v>
       </c>
     </row>
     <row r="49" spans="1:75" x14ac:dyDescent="0.3">
@@ -5256,7 +5250,7 @@
       </c>
       <c r="BJ59" s="1">
         <f>AVERAGE(C1:BF1)</f>
-        <v>5.0182488896632371</v>
+        <v>5.0162132370455375</v>
       </c>
       <c r="BL59" s="1">
         <v>13</v>
@@ -7046,10 +7040,10 @@
         <v>boris</v>
       </c>
       <c r="BX80" s="1">
-        <v>7.1890000000000001</v>
+        <v>7.15</v>
       </c>
       <c r="BY80" s="1">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="81" spans="1:77" x14ac:dyDescent="0.3">
@@ -9214,16 +9208,16 @@
         <v>boris</v>
       </c>
       <c r="BW106" s="1">
-        <v>7.1890574214517873</v>
+        <v>7.1503800217155264</v>
       </c>
       <c r="BX106" s="1">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="CA106" s="1" t="str">
         <v>boris</v>
       </c>
       <c r="CB106" s="1">
-        <v>7.1890574214517873</v>
+        <v>7.1503800217155264</v>
       </c>
     </row>
     <row r="107" spans="1:80" x14ac:dyDescent="0.3">
@@ -10384,6 +10378,18 @@
     <sortCondition descending="1" ref="B115:B126"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BC9:BD9"/>
     <mergeCell ref="BE9:BF9"/>
@@ -10400,18 +10406,6 @@
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
   </mergeCells>
   <conditionalFormatting sqref="C1 E1 G1 I1 K1 M1 O1 Q1 S1 U1 W1 Y1 AA1 AC1 AE1 AG1 AI1 AK1 AM1 AO1 AQ1 AS1 AU1 AW1 AY1 BA1 BC1 BE1 C9:AM9 AO9 AQ9 AS9 AU9 AW9 AY9 BA9 BC9 BE9">
     <cfRule type="expression" dxfId="24" priority="41" stopIfTrue="1">
@@ -10514,7 +10508,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D977F6-AD3F-47F0-926D-61192148887D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -10574,10 +10568,10 @@
         <v>boris</v>
       </c>
       <c r="C3" s="25" t="str">
-        <v>7.189</v>
+        <v>7.150</v>
       </c>
       <c r="D3" s="25">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F3" t="str">
         <v>entre 1 et 10</v>

--- a/classement_whist_2023_2025.xlsx
+++ b/classement_whist_2023_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a20b8382962b136a/Bureau/loisir/whist/projet_application_streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="497" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87734BB9-C50A-4964-A92C-4E3B432CBAA4}"/>
+  <xr:revisionPtr revIDLastSave="518" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{125B28D3-89FD-4E55-8667-B739183A1408}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All stat" sheetId="1" r:id="rId1"/>
@@ -76,52 +76,7 @@
     <t>q2</t>
   </si>
   <si>
-    <t>achille</t>
-  </si>
-  <si>
-    <t>mehdi</t>
-  </si>
-  <si>
-    <t>boris</t>
-  </si>
-  <si>
-    <t>samuel</t>
-  </si>
-  <si>
-    <t>joachim</t>
-  </si>
-  <si>
-    <t>damien</t>
-  </si>
-  <si>
-    <t>gauthier</t>
-  </si>
-  <si>
-    <t>célian</t>
-  </si>
-  <si>
-    <t>tom</t>
-  </si>
-  <si>
-    <t>luca</t>
-  </si>
-  <si>
-    <t>loulou</t>
-  </si>
-  <si>
-    <t>paul</t>
-  </si>
-  <si>
-    <t>marie</t>
-  </si>
-  <si>
     <t>Jules</t>
-  </si>
-  <si>
-    <t>harrison</t>
-  </si>
-  <si>
-    <t>pascale</t>
   </si>
   <si>
     <t>ok</t>
@@ -134,12 +89,6 @@
   </si>
   <si>
     <t>dernier</t>
-  </si>
-  <si>
-    <t>émile</t>
-  </si>
-  <si>
-    <t>william</t>
   </si>
   <si>
     <t>manque de partie</t>
@@ -172,13 +121,7 @@
     <t>Quentin</t>
   </si>
   <si>
-    <t>maxime_Go</t>
-  </si>
-  <si>
     <t>Maxime_Ca</t>
-  </si>
-  <si>
-    <t>aurélien</t>
   </si>
   <si>
     <t>cayfas a la feuille</t>
@@ -187,13 +130,7 @@
     <t>achille ?</t>
   </si>
   <si>
-    <t>fantinne</t>
-  </si>
-  <si>
     <t xml:space="preserve">achille ? </t>
-  </si>
-  <si>
-    <t>amélie</t>
   </si>
   <si>
     <t>vide</t>
@@ -329,6 +266,69 @@
   </si>
   <si>
     <t>irréfutable</t>
+  </si>
+  <si>
+    <t>Achille</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Boris</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Joachim</t>
+  </si>
+  <si>
+    <t>Damien</t>
+  </si>
+  <si>
+    <t>Gauthier</t>
+  </si>
+  <si>
+    <t>Célian</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Loulou</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Fantinne</t>
+  </si>
+  <si>
+    <t>Pascale</t>
+  </si>
+  <si>
+    <t>Maxime_Go</t>
+  </si>
+  <si>
+    <t>Aurélien</t>
+  </si>
+  <si>
+    <t>Émile</t>
+  </si>
+  <si>
+    <t>Amélie</t>
   </si>
 </sst>
 </file>
@@ -585,10 +585,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB131"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="BD12" sqref="BD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,10 +1789,10 @@
         <v>2</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>1</v>
@@ -2904,118 +2904,118 @@
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26" t="s">
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26" t="s">
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF9" s="26"/>
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="BF9" s="27"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -3494,7 +3494,7 @@
         <v>6</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:58" x14ac:dyDescent="0.3">
@@ -3528,7 +3528,7 @@
     </row>
     <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B32" s="1">
         <v>98</v>
@@ -3560,7 +3560,7 @@
     </row>
     <row r="33" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B33" s="1">
         <v>97</v>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="34" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
         <v>96</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="35" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
         <v>95</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="36" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1">
         <v>94</v>
@@ -3688,7 +3688,7 @@
     </row>
     <row r="37" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B37" s="1">
         <v>93</v>
@@ -3720,7 +3720,7 @@
     </row>
     <row r="38" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B38" s="1">
         <v>92</v>
@@ -3752,7 +3752,7 @@
     </row>
     <row r="39" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B39" s="1">
         <v>91</v>
@@ -3782,15 +3782,15 @@
         <v>16</v>
       </c>
       <c r="BP39" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="BR39" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B40" s="1">
         <v>90</v>
@@ -3820,12 +3820,12 @@
         <v>12</v>
       </c>
       <c r="BP40" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <v>89</v>
@@ -3855,19 +3855,19 @@
         <v>5</v>
       </c>
       <c r="BP41" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="BQ41" s="23"/>
       <c r="BR41" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="BS41" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B42" s="1">
         <v>88</v>
@@ -3897,19 +3897,19 @@
         <v>4</v>
       </c>
       <c r="BP42" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="BQ42" s="24"/>
       <c r="BR42" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="BS42" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B43" s="1">
         <v>87</v>
@@ -3939,19 +3939,19 @@
         <v>3</v>
       </c>
       <c r="BP43" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="BQ43" s="17"/>
       <c r="BR43" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="BS43" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B44" s="1">
         <v>86</v>
@@ -3981,19 +3981,19 @@
         <v>4</v>
       </c>
       <c r="BP44" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="BQ44" s="18"/>
       <c r="BR44" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="BS44" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
         <v>85</v>
@@ -4023,19 +4023,19 @@
         <v>8</v>
       </c>
       <c r="BP45" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="BQ45" s="21"/>
       <c r="BR45" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="BS45" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1">
         <v>84</v>
@@ -4071,19 +4071,19 @@
         <v>8</v>
       </c>
       <c r="BP46" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="BQ46" s="19"/>
       <c r="BR46" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="BS46" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B47" s="1">
         <v>83</v>
@@ -4113,19 +4113,19 @@
         <v>8</v>
       </c>
       <c r="BP47" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="BQ47" s="20"/>
       <c r="BR47" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="BS47" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:71" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B48" s="1">
         <v>82</v>
@@ -4155,19 +4155,19 @@
         <v>12</v>
       </c>
       <c r="BP48" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="BQ48" s="22"/>
       <c r="BR48" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="BS48" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B49" s="1">
         <v>81</v>
@@ -4211,7 +4211,7 @@
     </row>
     <row r="50" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B50" s="1">
         <v>80</v>
@@ -4247,36 +4247,36 @@
         <v>7</v>
       </c>
       <c r="BL50" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="BM50" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="BN50" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="BO50" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="BQ50" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="BR50" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="BS50" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="BT50" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="BV50" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B51" s="1">
         <v>79</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="52" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B52" s="1">
         <v>78</v>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="BI52" s="2"/>
       <c r="BJ52" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="BL52" s="1" cm="1">
         <f t="array" ref="BL52:BO70">_xlfn.LET(
@@ -4380,7 +4380,7 @@
         <v>1</v>
       </c>
       <c r="BM52" s="1" t="str">
-        <v>gauthier</v>
+        <v>Gauthier</v>
       </c>
       <c r="BN52" s="1" t="str">
         <v>8.143</v>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="BR52" s="1" t="str">
-        <v>amélie</v>
+        <v>Amélie</v>
       </c>
       <c r="BS52" s="1" t="str">
         <v>17.000</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="BV52" s="1" t="str" cm="1">
         <f t="array" ref="BV52:BW79">_xlfn.LET(  _xlpm.noms, TRANSPOSE(INDEX(C9:BF9,_xlfn.SEQUENCE(1,COLUMNS(C9:BF9)/2,1,2))),_xlpm.moy,  TRANSPOSE(INDEX(C1:BF1,,_xlfn.SEQUENCE(1,COLUMNS(C1:BF1)/2,1,2))),_xlfn.SORTBY(CHOOSE({1,2}, _xlpm.noms, _xlpm.moy), IF(ISNUMBER(_xlpm.moy), _xlpm.moy, -1E+99), -1))</f>
-        <v>gauthier</v>
+        <v>Gauthier</v>
       </c>
       <c r="BW52" s="1">
         <v>8.1428571428571423</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="53" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1">
         <v>77</v>
@@ -4459,13 +4459,13 @@
       </c>
       <c r="BI53" s="3"/>
       <c r="BJ53" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="BL53" s="1">
         <v>2</v>
       </c>
       <c r="BM53" s="1" t="str">
-        <v>boris</v>
+        <v>Boris</v>
       </c>
       <c r="BN53" s="1" t="str">
         <v>7.199</v>
@@ -4486,7 +4486,7 @@
         <v>4</v>
       </c>
       <c r="BV53" s="1" t="str">
-        <v>boris</v>
+        <v>Boris</v>
       </c>
       <c r="BW53" s="1">
         <v>7.1988210075026799</v>
@@ -4494,7 +4494,7 @@
     </row>
     <row r="54" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>76</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="BI54" s="4"/>
       <c r="BJ54" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="BL54" s="1">
         <v>3</v>
@@ -4543,7 +4543,7 @@
         <v>3</v>
       </c>
       <c r="BR54" s="1" t="str">
-        <v>pascale</v>
+        <v>Pascale</v>
       </c>
       <c r="BS54" s="1" t="str">
         <v>7.118</v>
@@ -4560,7 +4560,7 @@
     </row>
     <row r="55" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B55" s="1">
         <v>75</v>
@@ -4593,7 +4593,7 @@
         <v>4</v>
       </c>
       <c r="BM55" s="1" t="str">
-        <v>tom</v>
+        <v>Tom</v>
       </c>
       <c r="BN55" s="1" t="str">
         <v>6.205</v>
@@ -4605,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="BR55" s="1" t="str">
-        <v>harrison</v>
+        <v>Harrison</v>
       </c>
       <c r="BS55" s="1" t="str">
         <v>5.400</v>
@@ -4614,7 +4614,7 @@
         <v>5</v>
       </c>
       <c r="BV55" s="1" t="str">
-        <v>tom</v>
+        <v>Tom</v>
       </c>
       <c r="BW55" s="1">
         <v>6.2052631578947368</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="56" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B56" s="1">
         <v>74</v>
@@ -4653,13 +4653,13 @@
       </c>
       <c r="BI56" s="5"/>
       <c r="BJ56" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="BL56" s="1">
         <v>5</v>
       </c>
       <c r="BM56" s="1" t="str">
-        <v>joachim</v>
+        <v>Joachim</v>
       </c>
       <c r="BN56" s="1" t="str">
         <v>6.202</v>
@@ -4680,7 +4680,7 @@
         <v>17</v>
       </c>
       <c r="BV56" s="1" t="str">
-        <v>joachim</v>
+        <v>Joachim</v>
       </c>
       <c r="BW56" s="1">
         <v>6.2019230769230766</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="57" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1">
         <v>73</v>
@@ -4719,13 +4719,13 @@
       </c>
       <c r="BI57" s="10"/>
       <c r="BJ57" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="BL57" s="1">
         <v>6</v>
       </c>
       <c r="BM57" s="1" t="str">
-        <v>william</v>
+        <v>William</v>
       </c>
       <c r="BN57" s="1" t="str">
         <v>6.069</v>
@@ -4737,7 +4737,7 @@
         <v>6</v>
       </c>
       <c r="BR57" s="1" t="str">
-        <v>émile</v>
+        <v>Émile</v>
       </c>
       <c r="BS57" s="1" t="str">
         <v>3.308</v>
@@ -4746,7 +4746,7 @@
         <v>13</v>
       </c>
       <c r="BV57" s="1" t="str">
-        <v>william</v>
+        <v>William</v>
       </c>
       <c r="BW57" s="1">
         <v>6.068965517241379</v>
@@ -4754,7 +4754,7 @@
     </row>
     <row r="58" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B58" s="1">
         <v>72</v>
@@ -4785,13 +4785,13 @@
       </c>
       <c r="BI58" s="6"/>
       <c r="BJ58" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="BL58" s="1">
         <v>7</v>
       </c>
       <c r="BM58" s="1" t="str">
-        <v>célian</v>
+        <v>Célian</v>
       </c>
       <c r="BN58" s="1" t="str">
         <v>5.948</v>
@@ -4803,7 +4803,7 @@
         <v>7</v>
       </c>
       <c r="BR58" s="1" t="str">
-        <v>aurélien</v>
+        <v>Aurélien</v>
       </c>
       <c r="BS58" s="1" t="str">
         <v>2.800</v>
@@ -4812,7 +4812,7 @@
         <v>5</v>
       </c>
       <c r="BV58" s="1" t="str">
-        <v>célian</v>
+        <v>Célian</v>
       </c>
       <c r="BW58" s="1">
         <v>5.9481865284974091</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="59" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B59" s="1">
         <v>71</v>
@@ -4853,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="BM59" s="1" t="str">
-        <v>samuel</v>
+        <v>Samuel</v>
       </c>
       <c r="BN59" s="1" t="str">
         <v>5.910</v>
@@ -4865,7 +4865,7 @@
         <v>8</v>
       </c>
       <c r="BR59" s="1" t="str">
-        <v>maxime_Go</v>
+        <v>Maxime_Go</v>
       </c>
       <c r="BS59" s="1" t="str">
         <v>0.727</v>
@@ -4874,7 +4874,7 @@
         <v>11</v>
       </c>
       <c r="BV59" s="1" t="str">
-        <v>samuel</v>
+        <v>Samuel</v>
       </c>
       <c r="BW59" s="1">
         <v>5.9099526066350707</v>
@@ -4882,7 +4882,7 @@
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B60" s="15">
         <v>70</v>
@@ -4958,13 +4958,13 @@
       <c r="AY60" s="15"/>
       <c r="BI60" s="7"/>
       <c r="BJ60" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="BL60" s="1">
         <v>9</v>
       </c>
       <c r="BM60" s="1" t="str">
-        <v>mehdi</v>
+        <v>Mehdi</v>
       </c>
       <c r="BN60" s="1" t="str">
         <v>5.770</v>
@@ -4985,7 +4985,7 @@
         <v>12</v>
       </c>
       <c r="BV60" s="1" t="str">
-        <v>mehdi</v>
+        <v>Mehdi</v>
       </c>
       <c r="BW60" s="1">
         <v>5.7695961995249405</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="61" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B61" s="15">
         <v>69</v>
@@ -5065,13 +5065,13 @@
       <c r="AY61" s="15"/>
       <c r="BI61" s="8"/>
       <c r="BJ61" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="BL61" s="1">
         <v>10</v>
       </c>
       <c r="BM61" s="1" t="str">
-        <v>achille</v>
+        <v>Achille</v>
       </c>
       <c r="BN61" s="1" t="str">
         <v>5.259</v>
@@ -5080,7 +5080,7 @@
         <v>785</v>
       </c>
       <c r="BV61" s="1" t="str">
-        <v>achille</v>
+        <v>Achille</v>
       </c>
       <c r="BW61" s="1">
         <v>5.2585987261146494</v>
@@ -5088,7 +5088,7 @@
     </row>
     <row r="62" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B62" s="15">
         <v>68</v>
@@ -5160,13 +5160,13 @@
       <c r="AY62" s="15"/>
       <c r="BI62" s="9"/>
       <c r="BJ62" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="BL62" s="1">
         <v>11</v>
       </c>
       <c r="BM62" s="1" t="str">
-        <v>damien</v>
+        <v>Damien</v>
       </c>
       <c r="BN62" s="1" t="str">
         <v>5.038</v>
@@ -5175,7 +5175,7 @@
         <v>480</v>
       </c>
       <c r="BV62" s="1" t="str">
-        <v>damien</v>
+        <v>Damien</v>
       </c>
       <c r="BW62" s="1">
         <v>5.0374999999999996</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="63" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B63" s="15">
         <v>67</v>
@@ -5257,7 +5257,7 @@
         <v>12</v>
       </c>
       <c r="BM63" s="1" t="str">
-        <v>paul</v>
+        <v>Paul</v>
       </c>
       <c r="BN63" s="1" t="str">
         <v>4.813</v>
@@ -5266,7 +5266,7 @@
         <v>32</v>
       </c>
       <c r="BV63" s="1" t="str">
-        <v>paul</v>
+        <v>Paul</v>
       </c>
       <c r="BW63" s="1">
         <v>4.8125</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="64" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B64" s="15">
         <v>66</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="65" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B65" s="15">
         <v>65</v>
@@ -5450,7 +5450,7 @@
         <v>14</v>
       </c>
       <c r="BM65" s="1" t="str">
-        <v>marie</v>
+        <v>Marie</v>
       </c>
       <c r="BN65" s="1" t="str">
         <v>3.958</v>
@@ -5459,7 +5459,7 @@
         <v>178</v>
       </c>
       <c r="BV65" s="1" t="str">
-        <v>marie</v>
+        <v>Marie</v>
       </c>
       <c r="BW65" s="1">
         <v>3.957865168539326</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="66" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B66" s="15">
         <v>64</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="67" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B67" s="15">
         <v>63</v>
@@ -5633,7 +5633,7 @@
       <c r="AX67" s="15"/>
       <c r="AY67" s="15"/>
       <c r="BJ67" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="BL67" s="1">
         <v>16</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="68" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B68" s="15">
         <v>62</v>
@@ -5736,13 +5736,13 @@
       <c r="AY68" s="15"/>
       <c r="BI68" s="11"/>
       <c r="BJ68" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="BL68" s="1">
         <v>17</v>
       </c>
       <c r="BM68" s="1" t="str">
-        <v>luca</v>
+        <v>Luca</v>
       </c>
       <c r="BN68" s="1" t="str">
         <v>3.019</v>
@@ -5751,7 +5751,7 @@
         <v>156</v>
       </c>
       <c r="BV68" s="1" t="str">
-        <v>luca</v>
+        <v>Luca</v>
       </c>
       <c r="BW68" s="1">
         <v>3.0192307692307692</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="69" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B69" s="15">
         <v>61</v>
@@ -5831,13 +5831,13 @@
       <c r="AY69" s="15"/>
       <c r="BI69" s="14"/>
       <c r="BJ69" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="BL69" s="1">
         <v>18</v>
       </c>
       <c r="BM69" s="1" t="str">
-        <v>fantinne</v>
+        <v>Fantinne</v>
       </c>
       <c r="BN69" s="1" t="str">
         <v>2.556</v>
@@ -5846,7 +5846,7 @@
         <v>36</v>
       </c>
       <c r="BV69" s="1" t="str">
-        <v>fantinne</v>
+        <v>Fantinne</v>
       </c>
       <c r="BW69" s="1">
         <v>2.5555555555555554</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="70" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B70" s="15">
         <v>60</v>
@@ -5930,13 +5930,13 @@
       <c r="AY70" s="15"/>
       <c r="BI70" s="13"/>
       <c r="BJ70" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="BL70" s="1">
         <v>19</v>
       </c>
       <c r="BM70" s="1" t="str">
-        <v>loulou</v>
+        <v>Loulou</v>
       </c>
       <c r="BN70" s="1" t="str">
         <v>2.075</v>
@@ -5945,7 +5945,7 @@
         <v>67</v>
       </c>
       <c r="BV70" s="1" t="str">
-        <v>loulou</v>
+        <v>Loulou</v>
       </c>
       <c r="BW70" s="1">
         <v>2.0746268656716418</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="71" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B71" s="15">
         <v>59</v>
@@ -6025,10 +6025,10 @@
       <c r="AY71" s="15"/>
       <c r="BI71" s="12"/>
       <c r="BJ71" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="BV71" s="1" t="str">
-        <v>harrison</v>
+        <v>Harrison</v>
       </c>
       <c r="BW71" s="1" t="str">
         <v>/</v>
@@ -6036,7 +6036,7 @@
     </row>
     <row r="72" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B72" s="15">
         <v>58</v>
@@ -6107,7 +6107,7 @@
       <c r="AX72" s="15"/>
       <c r="AY72" s="15"/>
       <c r="BV72" s="1" t="str">
-        <v>pascale</v>
+        <v>Pascale</v>
       </c>
       <c r="BW72" s="1" t="str">
         <v>/</v>
@@ -6115,7 +6115,7 @@
     </row>
     <row r="73" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B73" s="15">
         <v>57</v>
@@ -6198,7 +6198,7 @@
     </row>
     <row r="74" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B74" s="15">
         <v>56</v>
@@ -6273,7 +6273,7 @@
       <c r="AX74" s="15"/>
       <c r="AY74" s="15"/>
       <c r="BV74" s="1" t="str">
-        <v>maxime_Go</v>
+        <v>Maxime_Go</v>
       </c>
       <c r="BW74" s="1" t="str">
         <v>/</v>
@@ -6281,10 +6281,10 @@
     </row>
     <row r="75" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A75" s="15" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C75" s="15"/>
       <c r="D75" s="15"/>
@@ -6344,7 +6344,7 @@
     </row>
     <row r="76" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B76" s="15">
         <v>55</v>
@@ -6415,7 +6415,7 @@
       <c r="AX76" s="15"/>
       <c r="AY76" s="15"/>
       <c r="BV76" s="1" t="str">
-        <v>aurélien</v>
+        <v>Aurélien</v>
       </c>
       <c r="BW76" s="1" t="str">
         <v>/</v>
@@ -6423,7 +6423,7 @@
     </row>
     <row r="77" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B77" s="15">
         <v>54</v>
@@ -6498,7 +6498,7 @@
       <c r="AX77" s="15"/>
       <c r="AY77" s="15"/>
       <c r="BV77" s="1" t="str">
-        <v>émile</v>
+        <v>Émile</v>
       </c>
       <c r="BW77" s="1" t="str">
         <v>/</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="78" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B78" s="15">
         <v>53</v>
@@ -6577,7 +6577,7 @@
       <c r="AX78" s="15"/>
       <c r="AY78" s="15"/>
       <c r="BV78" s="1" t="str">
-        <v>amélie</v>
+        <v>Amélie</v>
       </c>
       <c r="BW78" s="1" t="str">
         <v>/</v>
@@ -6585,7 +6585,7 @@
     </row>
     <row r="79" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B79" s="15">
         <v>52</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="80" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B80" s="15">
         <v>51</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="81" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A81" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B81" s="15">
         <v>50</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="82" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A82" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B82" s="15">
         <v>49</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="83" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A83" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B83" s="15">
         <v>48</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="84" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A84" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B84" s="15">
         <v>47</v>
@@ -7051,7 +7051,7 @@
         <v>1</v>
       </c>
       <c r="BW84" s="1" t="str">
-        <v>gauthier</v>
+        <v>Gauthier</v>
       </c>
       <c r="BX84" s="1">
         <v>8.1430000000000007</v>
@@ -7062,7 +7062,7 @@
     </row>
     <row r="85" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A85" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B85" s="15">
         <v>46</v>
@@ -7140,7 +7140,7 @@
         <v>2</v>
       </c>
       <c r="BW85" s="1" t="str">
-        <v>boris</v>
+        <v>Boris</v>
       </c>
       <c r="BX85" s="1">
         <v>7.1989999999999998</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="86" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A86" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B86" s="15">
         <v>45</v>
@@ -7240,7 +7240,7 @@
     </row>
     <row r="87" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A87" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B87" s="15">
         <v>44</v>
@@ -7314,7 +7314,7 @@
         <v>4</v>
       </c>
       <c r="BW87" s="1" t="str">
-        <v>tom</v>
+        <v>Tom</v>
       </c>
       <c r="BX87" s="1">
         <v>6.2050000000000001</v>
@@ -7325,7 +7325,7 @@
     </row>
     <row r="88" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A88" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B88" s="15">
         <v>43</v>
@@ -7399,7 +7399,7 @@
         <v>5</v>
       </c>
       <c r="BW88" s="1" t="str">
-        <v>joachim</v>
+        <v>Joachim</v>
       </c>
       <c r="BX88" s="1">
         <v>6.202</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="89" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A89" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B89" s="15">
         <v>42</v>
@@ -7484,7 +7484,7 @@
         <v>6</v>
       </c>
       <c r="BW89" s="1" t="str">
-        <v>william</v>
+        <v>William</v>
       </c>
       <c r="BX89" s="1">
         <v>6.069</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="90" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A90" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B90" s="15">
         <v>41</v>
@@ -7569,7 +7569,7 @@
         <v>7</v>
       </c>
       <c r="BW90" s="1" t="str">
-        <v>célian</v>
+        <v>Célian</v>
       </c>
       <c r="BX90" s="1">
         <v>5.9480000000000004</v>
@@ -7580,7 +7580,7 @@
     </row>
     <row r="91" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A91" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B91" s="15">
         <v>40</v>
@@ -7659,7 +7659,7 @@
         <v>8</v>
       </c>
       <c r="BW91" s="1" t="str">
-        <v>samuel</v>
+        <v>Samuel</v>
       </c>
       <c r="BX91" s="1">
         <v>5.91</v>
@@ -7670,7 +7670,7 @@
     </row>
     <row r="92" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A92" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B92" s="15">
         <v>39</v>
@@ -7748,7 +7748,7 @@
         <v>9</v>
       </c>
       <c r="BW92" s="1" t="str">
-        <v>mehdi</v>
+        <v>Mehdi</v>
       </c>
       <c r="BX92" s="1">
         <v>5.77</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="93" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A93" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B93" s="15">
         <v>38</v>
@@ -7837,7 +7837,7 @@
         <v>10</v>
       </c>
       <c r="BW93" s="1" t="str">
-        <v>achille</v>
+        <v>Achille</v>
       </c>
       <c r="BX93" s="1">
         <v>5.2590000000000003</v>
@@ -7848,7 +7848,7 @@
     </row>
     <row r="94" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A94" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B94" s="15">
         <v>37</v>
@@ -7922,7 +7922,7 @@
         <v>11</v>
       </c>
       <c r="BW94" s="1" t="str">
-        <v>damien</v>
+        <v>Damien</v>
       </c>
       <c r="BX94" s="1">
         <v>5.0380000000000003</v>
@@ -7933,7 +7933,7 @@
     </row>
     <row r="95" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A95" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B95" s="15">
         <v>36</v>
@@ -8007,7 +8007,7 @@
         <v>12</v>
       </c>
       <c r="BW95" s="1" t="str">
-        <v>paul</v>
+        <v>Paul</v>
       </c>
       <c r="BX95" s="1">
         <v>4.8129999999999997</v>
@@ -8018,7 +8018,7 @@
     </row>
     <row r="96" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A96" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B96" s="15">
         <v>35</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="97" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A97" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B97" s="15">
         <v>34</v>
@@ -8177,7 +8177,7 @@
         <v>14</v>
       </c>
       <c r="BW97" s="1" t="str">
-        <v>marie</v>
+        <v>Marie</v>
       </c>
       <c r="BX97" s="1">
         <v>3.9580000000000002</v>
@@ -8188,7 +8188,7 @@
     </row>
     <row r="98" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A98" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B98" s="15">
         <v>33</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="99" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A99" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B99" s="15">
         <v>32</v>
@@ -8358,7 +8358,7 @@
     </row>
     <row r="100" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A100" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B100" s="15">
         <v>31</v>
@@ -8432,7 +8432,7 @@
         <v>17</v>
       </c>
       <c r="BW100" s="1" t="str">
-        <v>luca</v>
+        <v>Luca</v>
       </c>
       <c r="BX100" s="1">
         <v>3.0190000000000001</v>
@@ -8443,7 +8443,7 @@
     </row>
     <row r="101" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A101" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B101" s="15">
         <v>30</v>
@@ -8525,7 +8525,7 @@
         <v>18</v>
       </c>
       <c r="BW101" s="1" t="str">
-        <v>fantinne</v>
+        <v>Fantinne</v>
       </c>
       <c r="BX101" s="1">
         <v>2.556</v>
@@ -8536,7 +8536,7 @@
     </row>
     <row r="102" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A102" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B102" s="15">
         <v>29</v>
@@ -8610,7 +8610,7 @@
         <v>19</v>
       </c>
       <c r="BW102" s="1" t="str">
-        <v>loulou</v>
+        <v>Loulou</v>
       </c>
       <c r="BX102" s="1">
         <v>2.0750000000000002</v>
@@ -8621,7 +8621,7 @@
     </row>
     <row r="103" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A103" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B103" s="15">
         <v>28</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="104" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A104" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B104" s="15">
         <v>27</v>
@@ -8771,7 +8771,7 @@
     </row>
     <row r="105" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A105" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B105" s="15">
         <v>26</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="106" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A106" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B106" s="15">
         <v>25</v>
@@ -8921,7 +8921,7 @@
     </row>
     <row r="107" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A107" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B107" s="15">
         <v>24</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="108" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A108" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B108" s="15">
         <v>23</v>
@@ -9067,7 +9067,7 @@
     </row>
     <row r="109" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A109" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B109" s="15">
         <v>22</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="110" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A110" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B110" s="15">
         <v>21</v>
@@ -9219,7 +9219,7 @@
   _xlpm.ok, ISNUMBER(_xlpm.moy),
   _xlfn._xlws.SORT(CHOOSE({1,2,3}, _xlfn._xlws.FILTER(_xlpm.noms,_xlpm.ok), _xlfn._xlws.FILTER(_xlpm.moy,_xlpm.ok), _xlfn._xlws.FILTER(_xlpm.parties,_xlpm.ok)), 2, -1)
 )</f>
-        <v>gauthier</v>
+        <v>Gauthier</v>
       </c>
       <c r="BW110" s="1">
         <v>8.1428571428571423</v>
@@ -9229,7 +9229,7 @@
       </c>
       <c r="CA110" s="1" t="str" cm="1">
         <f t="array" ref="CA110:CB128">_xlfn.LET(  _xlpm.noms, TRANSPOSE(INDEX(C9:BF9,_xlfn.SEQUENCE(1,COLUMNS(C9:BF9)/2,1,2))),_xlpm.moy,  TRANSPOSE(INDEX(C1:BF1,,_xlfn.SEQUENCE(1,COLUMNS(C1:BF1)/2,1,2))),_xlpm.ok, ISNUMBER(_xlpm.moy),_xlfn._xlws.SORT(CHOOSE({1,2}, _xlfn._xlws.FILTER(_xlpm.noms, _xlpm.ok), _xlfn._xlws.FILTER(_xlpm.moy, _xlpm.ok)), 2, -1))</f>
-        <v>gauthier</v>
+        <v>Gauthier</v>
       </c>
       <c r="CB110" s="1">
         <v>8.1428571428571423</v>
@@ -9237,7 +9237,7 @@
     </row>
     <row r="111" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A111" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B111" s="15">
         <v>20</v>
@@ -9308,7 +9308,7 @@
       <c r="AX111" s="15"/>
       <c r="AY111" s="15"/>
       <c r="BV111" s="1" t="str">
-        <v>boris</v>
+        <v>Boris</v>
       </c>
       <c r="BW111" s="1">
         <v>7.1988210075026799</v>
@@ -9317,7 +9317,7 @@
         <v>933</v>
       </c>
       <c r="CA111" s="1" t="str">
-        <v>boris</v>
+        <v>Boris</v>
       </c>
       <c r="CB111" s="1">
         <v>7.1988210075026799</v>
@@ -9325,7 +9325,7 @@
     </row>
     <row r="112" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A112" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B112" s="15">
         <v>19</v>
@@ -9396,7 +9396,7 @@
       <c r="AX112" s="15"/>
       <c r="AY112" s="15"/>
       <c r="BV112" s="1" t="str">
-        <v>tom</v>
+        <v>Tom</v>
       </c>
       <c r="BW112" s="1">
         <v>6.2052631578947368</v>
@@ -9413,7 +9413,7 @@
     </row>
     <row r="113" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A113" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B113" s="15">
         <v>18</v>
@@ -9484,7 +9484,7 @@
       <c r="AX113" s="15"/>
       <c r="AY113" s="15"/>
       <c r="BV113" s="1" t="str">
-        <v>joachim</v>
+        <v>Joachim</v>
       </c>
       <c r="BW113" s="1">
         <v>6.2019230769230766</v>
@@ -9493,7 +9493,7 @@
         <v>104</v>
       </c>
       <c r="CA113" s="1" t="str">
-        <v>tom</v>
+        <v>Tom</v>
       </c>
       <c r="CB113" s="1">
         <v>6.2052631578947368</v>
@@ -9501,7 +9501,7 @@
     </row>
     <row r="114" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A114" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B114" s="15">
         <v>17</v>
@@ -9572,7 +9572,7 @@
       <c r="AX114" s="15"/>
       <c r="AY114" s="15"/>
       <c r="BV114" s="1" t="str">
-        <v>william</v>
+        <v>William</v>
       </c>
       <c r="BW114" s="1">
         <v>6.068965517241379</v>
@@ -9581,7 +9581,7 @@
         <v>29</v>
       </c>
       <c r="CA114" s="1" t="str">
-        <v>joachim</v>
+        <v>Joachim</v>
       </c>
       <c r="CB114" s="1">
         <v>6.2019230769230766</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="115" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B115" s="15">
         <v>16</v>
@@ -9660,7 +9660,7 @@
       <c r="AX115" s="15"/>
       <c r="AY115" s="15"/>
       <c r="BV115" s="1" t="str">
-        <v>célian</v>
+        <v>Célian</v>
       </c>
       <c r="BW115" s="1">
         <v>5.9481865284974091</v>
@@ -9669,7 +9669,7 @@
         <v>193</v>
       </c>
       <c r="CA115" s="1" t="str">
-        <v>william</v>
+        <v>William</v>
       </c>
       <c r="CB115" s="1">
         <v>6.068965517241379</v>
@@ -9677,7 +9677,7 @@
     </row>
     <row r="116" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A116" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B116" s="15">
         <v>15</v>
@@ -9748,7 +9748,7 @@
       <c r="AX116" s="15"/>
       <c r="AY116" s="15"/>
       <c r="BV116" s="1" t="str">
-        <v>samuel</v>
+        <v>Samuel</v>
       </c>
       <c r="BW116" s="1">
         <v>5.9099526066350707</v>
@@ -9757,7 +9757,7 @@
         <v>211</v>
       </c>
       <c r="CA116" s="1" t="str">
-        <v>célian</v>
+        <v>Célian</v>
       </c>
       <c r="CB116" s="1">
         <v>5.9481865284974091</v>
@@ -9765,7 +9765,7 @@
     </row>
     <row r="117" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A117" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B117" s="15">
         <v>14</v>
@@ -9840,7 +9840,7 @@
       <c r="AX117" s="15"/>
       <c r="AY117" s="15"/>
       <c r="BV117" s="1" t="str">
-        <v>mehdi</v>
+        <v>Mehdi</v>
       </c>
       <c r="BW117" s="1">
         <v>5.7695961995249405</v>
@@ -9849,7 +9849,7 @@
         <v>421</v>
       </c>
       <c r="CA117" s="1" t="str">
-        <v>samuel</v>
+        <v>Samuel</v>
       </c>
       <c r="CB117" s="1">
         <v>5.9099526066350707</v>
@@ -9857,7 +9857,7 @@
     </row>
     <row r="118" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A118" s="15" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B118" s="15">
         <v>13</v>
@@ -9928,7 +9928,7 @@
       <c r="AX118" s="15"/>
       <c r="AY118" s="15"/>
       <c r="BV118" s="1" t="str">
-        <v>achille</v>
+        <v>Achille</v>
       </c>
       <c r="BW118" s="1">
         <v>5.2585987261146494</v>
@@ -9937,7 +9937,7 @@
         <v>785</v>
       </c>
       <c r="CA118" s="1" t="str">
-        <v>mehdi</v>
+        <v>Mehdi</v>
       </c>
       <c r="CB118" s="1">
         <v>5.7695961995249405</v>
@@ -9945,13 +9945,13 @@
     </row>
     <row r="119" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="BV119" s="1" t="str">
-        <v>damien</v>
+        <v>Damien</v>
       </c>
       <c r="BW119" s="1">
         <v>5.0374999999999996</v>
@@ -9960,7 +9960,7 @@
         <v>480</v>
       </c>
       <c r="CA119" s="1" t="str">
-        <v>achille</v>
+        <v>Achille</v>
       </c>
       <c r="CB119" s="1">
         <v>5.2585987261146494</v>
@@ -9968,7 +9968,7 @@
     </row>
     <row r="120" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B120" s="1">
         <v>12</v>
@@ -9998,7 +9998,7 @@
         <v>11</v>
       </c>
       <c r="BV120" s="1" t="str">
-        <v>paul</v>
+        <v>Paul</v>
       </c>
       <c r="BW120" s="1">
         <v>4.8125</v>
@@ -10007,7 +10007,7 @@
         <v>32</v>
       </c>
       <c r="CA120" s="1" t="str">
-        <v>damien</v>
+        <v>Damien</v>
       </c>
       <c r="CB120" s="1">
         <v>5.0374999999999996</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="121" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B121" s="1">
         <v>11</v>
@@ -10054,7 +10054,7 @@
         <v>81</v>
       </c>
       <c r="CA121" s="1" t="str">
-        <v>paul</v>
+        <v>Paul</v>
       </c>
       <c r="CB121" s="1">
         <v>4.8125</v>
@@ -10062,7 +10062,7 @@
     </row>
     <row r="122" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B122" s="1">
         <v>10</v>
@@ -10092,7 +10092,7 @@
         <v>8</v>
       </c>
       <c r="BV122" s="1" t="str">
-        <v>marie</v>
+        <v>Marie</v>
       </c>
       <c r="BW122" s="1">
         <v>3.957865168539326</v>
@@ -10109,7 +10109,7 @@
     </row>
     <row r="123" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B123" s="1">
         <v>9</v>
@@ -10148,7 +10148,7 @@
         <v>27</v>
       </c>
       <c r="CA123" s="1" t="str">
-        <v>marie</v>
+        <v>Marie</v>
       </c>
       <c r="CB123" s="1">
         <v>3.957865168539326</v>
@@ -10156,7 +10156,7 @@
     </row>
     <row r="124" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B124" s="1">
         <v>8</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="125" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B125" s="1">
         <v>7</v>
@@ -10233,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="BV125" s="1" t="str">
-        <v>luca</v>
+        <v>Luca</v>
       </c>
       <c r="BW125" s="1">
         <v>3.0192307692307692</v>
@@ -10250,7 +10250,7 @@
     </row>
     <row r="126" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B126" s="1">
         <v>6</v>
@@ -10280,7 +10280,7 @@
         <v>13</v>
       </c>
       <c r="BV126" s="1" t="str">
-        <v>fantinne</v>
+        <v>Fantinne</v>
       </c>
       <c r="BW126" s="1">
         <v>2.5555555555555554</v>
@@ -10289,7 +10289,7 @@
         <v>36</v>
       </c>
       <c r="CA126" s="1" t="str">
-        <v>luca</v>
+        <v>Luca</v>
       </c>
       <c r="CB126" s="1">
         <v>3.0192307692307692</v>
@@ -10297,7 +10297,7 @@
     </row>
     <row r="127" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B127" s="1">
         <v>5</v>
@@ -10327,7 +10327,7 @@
         <v>9</v>
       </c>
       <c r="BV127" s="1" t="str">
-        <v>loulou</v>
+        <v>Loulou</v>
       </c>
       <c r="BW127" s="1">
         <v>2.0746268656716418</v>
@@ -10336,7 +10336,7 @@
         <v>67</v>
       </c>
       <c r="CA127" s="1" t="str">
-        <v>fantinne</v>
+        <v>Fantinne</v>
       </c>
       <c r="CB127" s="1">
         <v>2.5555555555555554</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="128" spans="1:80" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B128" s="1">
         <v>4</v>
@@ -10374,7 +10374,7 @@
         <v>11</v>
       </c>
       <c r="CA128" s="1" t="str">
-        <v>loulou</v>
+        <v>Loulou</v>
       </c>
       <c r="CB128" s="1">
         <v>2.0746268656716418</v>
@@ -10382,7 +10382,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B129" s="1">
         <v>3</v>
@@ -10414,7 +10414,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B130" s="1">
         <v>2</v>
@@ -10446,7 +10446,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B131" s="1">
         <v>1</v>
@@ -10481,18 +10481,6 @@
     <sortCondition descending="1" ref="B120:B131"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BC9:BD9"/>
     <mergeCell ref="BE9:BF9"/>
@@ -10509,6 +10497,18 @@
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
   </mergeCells>
   <conditionalFormatting sqref="C1 E1 G1 I1 K1 M1 O1 Q1 S1 U1 W1 Y1 AA1 AC1 AE1 AG1 AI1 AK1 AM1 AO1 AQ1 AS1 AU1 AW1 AY1 BA1 BC1 BE1 C9:AM9 AO9 AQ9 AS9 AU9 AW9 AY9 BA9 BC9 BE9">
     <cfRule type="expression" dxfId="24" priority="41" stopIfTrue="1">
@@ -10611,7 +10611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D977F6-AD3F-47F0-926D-61192148887D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+    <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -10629,16 +10629,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F1" t="str" cm="1">
         <f t="array" ref="F1:F10">'All stat'!BP39:BP48</f>
@@ -10651,7 +10651,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="25" t="str">
-        <v>gauthier</v>
+        <v>Gauthier</v>
       </c>
       <c r="C2" s="25" t="str">
         <v>8.143</v>
@@ -10668,7 +10668,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="25" t="str">
-        <v>boris</v>
+        <v>Boris</v>
       </c>
       <c r="C3" s="25" t="str">
         <v>7.199</v>
@@ -10717,7 +10717,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="str">
-        <v>tom</v>
+        <v>Tom</v>
       </c>
       <c r="C5" s="25" t="str">
         <v>6.205</v>
@@ -10741,7 +10741,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="str">
-        <v>joachim</v>
+        <v>Joachim</v>
       </c>
       <c r="C6" s="25" t="str">
         <v>6.202</v>
@@ -10765,7 +10765,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="25" t="str">
-        <v>william</v>
+        <v>William</v>
       </c>
       <c r="C7" s="25" t="str">
         <v>6.069</v>
@@ -10789,7 +10789,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="str">
-        <v>célian</v>
+        <v>Célian</v>
       </c>
       <c r="C8" s="25" t="str">
         <v>5.948</v>
@@ -10813,7 +10813,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="str">
-        <v>samuel</v>
+        <v>Samuel</v>
       </c>
       <c r="C9" s="25" t="str">
         <v>5.910</v>
@@ -10837,7 +10837,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="25" t="str">
-        <v>mehdi</v>
+        <v>Mehdi</v>
       </c>
       <c r="C10" s="25" t="str">
         <v>5.770</v>
@@ -10861,7 +10861,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="25" t="str">
-        <v>achille</v>
+        <v>Achille</v>
       </c>
       <c r="C11" s="25" t="str">
         <v>5.259</v>
@@ -10875,7 +10875,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="25" t="str">
-        <v>damien</v>
+        <v>Damien</v>
       </c>
       <c r="C12" s="25" t="str">
         <v>5.038</v>
@@ -10889,7 +10889,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="25" t="str">
-        <v>paul</v>
+        <v>Paul</v>
       </c>
       <c r="C13" s="25" t="str">
         <v>4.813</v>
@@ -10917,7 +10917,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25" t="str">
-        <v>marie</v>
+        <v>Marie</v>
       </c>
       <c r="C15" s="25" t="str">
         <v>3.958</v>
@@ -10959,7 +10959,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="25" t="str">
-        <v>luca</v>
+        <v>Luca</v>
       </c>
       <c r="C18" s="25" t="str">
         <v>3.019</v>
@@ -10973,7 +10973,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="25" t="str">
-        <v>fantinne</v>
+        <v>Fantinne</v>
       </c>
       <c r="C19" s="25" t="str">
         <v>2.556</v>
@@ -10987,7 +10987,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="25" t="str">
-        <v>loulou</v>
+        <v>Loulou</v>
       </c>
       <c r="C20" s="25" t="str">
         <v>2.075</v>

--- a/classement_whist_2023_2025.xlsx
+++ b/classement_whist_2023_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a20b8382962b136a/Bureau/loisir/whist/projet_application_streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="551" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB653D1F-AE0C-4183-B101-DF084ED4ADAE}"/>
+  <xr:revisionPtr revIDLastSave="570" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481F6B57-3215-4E63-9CE5-6030E64E4DA9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All stat" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="C1" s="1">
         <f t="shared" ref="C1" si="0">IF(D2&gt;19,C2/D2,"/")</f>
-        <v>5.2585987261146494</v>
+        <v>5.35</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="M1" s="1">
         <f t="shared" ref="M1" si="5">IF(N2&gt;19,M2/N2,"/")</f>
-        <v>5.1622176591375766</v>
+        <v>5.1282565130260522</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -1210,14 +1210,14 @@
       </c>
       <c r="Q1" s="1">
         <f t="shared" ref="Q1" si="7">IF(R2&gt;19,Q2/R2,"/")</f>
-        <v>5.9492385786802027</v>
+        <v>5.86</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="S1" s="1">
         <f t="shared" ref="S1" si="8">IF(T2&gt;19,S2/T2,"/")</f>
-        <v>6.2052631578947368</v>
+        <v>6.1088082901554408</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>2</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AC1" s="1">
         <f>IF(AD2&gt;19,AC2/AD2,"/")</f>
-        <v>4.2613636363636367</v>
+        <v>4.740384615384615</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>2</v>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="AI1" s="1">
         <f t="shared" ref="AI1" si="15">IF(AJ2&gt;19,AI2/AJ2,"/")</f>
-        <v>2.5555555555555554</v>
+        <v>2.9607843137254903</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>2</v>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="C2" s="1">
         <f>C4+C6+C8</f>
-        <v>4128</v>
+        <v>4280</v>
       </c>
       <c r="D2" s="1">
         <f>D4+D6+D8</f>
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="E2" s="1">
         <f t="shared" ref="E2:J2" si="27">E4+E6+E8</f>
@@ -1402,11 +1402,11 @@
       </c>
       <c r="M2" s="1">
         <f t="shared" si="28"/>
-        <v>2514</v>
+        <v>2559</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="28"/>
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="28"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="R2" s="1">
         <f t="shared" si="28"/>
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S2" s="1">
         <f t="shared" si="28"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="T2" s="1">
         <f t="shared" si="28"/>
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="U2" s="1">
         <f t="shared" si="28"/>
@@ -1466,11 +1466,11 @@
       </c>
       <c r="AC2" s="1">
         <f t="shared" si="28"/>
-        <v>375</v>
+        <v>493</v>
       </c>
       <c r="AD2" s="1">
         <f t="shared" si="28"/>
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="AE2" s="1">
         <f t="shared" si="28"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="AI2" s="1">
         <f t="shared" si="28"/>
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="AJ2" s="1">
         <f t="shared" si="28"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AK2" s="1">
         <f t="shared" si="28"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C7" s="15">
         <f>C8/D8</f>
-        <v>6.0857142857142854</v>
+        <v>6.2915254237288138</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>2</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="M7" s="15">
         <f t="shared" ref="M7" si="97">M8/N8</f>
-        <v>5.6789297658862878</v>
+        <v>5.604501607717042</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>2</v>
@@ -2527,14 +2527,14 @@
       </c>
       <c r="Q7" s="15">
         <f t="shared" ref="Q7" si="99">Q8/R8</f>
-        <v>6.0327868852459012</v>
+        <v>5.8879999999999999</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S7" s="15">
         <f t="shared" ref="S7" si="100">S8/T8</f>
-        <v>5.0714285714285712</v>
+        <v>4.8965517241379306</v>
       </c>
       <c r="T7" s="15" t="s">
         <v>2</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="AC7" s="15">
         <f t="shared" ref="AC7" si="105">AC8/AD8</f>
-        <v>4.6025641025641022</v>
+        <v>5.0744680851063828</v>
       </c>
       <c r="AD7" s="15" t="s">
         <v>2</v>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="AI7" s="15">
         <f t="shared" ref="AI7" si="108">AI8/AJ8</f>
-        <v>2.5555555555555554</v>
+        <v>2.9607843137254903</v>
       </c>
       <c r="AJ7" s="15" t="s">
         <v>2</v>
@@ -2680,11 +2680,11 @@
       </c>
       <c r="C8" s="15">
         <f>SUM(C10:C78)</f>
-        <v>1704</v>
+        <v>1856</v>
       </c>
       <c r="D8" s="15">
         <f>SUM(D10:D78)</f>
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="E8" s="15">
         <f t="shared" ref="E8:J8" si="120">SUM(E10:E78)</f>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="M8" s="15">
         <f t="shared" si="121"/>
-        <v>1698</v>
+        <v>1743</v>
       </c>
       <c r="N8" s="15">
         <f t="shared" si="121"/>
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" si="121"/>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="R8" s="15">
         <f t="shared" si="121"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="S8" s="15">
         <f t="shared" si="121"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="T8" s="15">
         <f t="shared" si="121"/>
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="U8" s="15">
         <f t="shared" si="121"/>
@@ -2784,11 +2784,11 @@
       </c>
       <c r="AC8" s="15">
         <f t="shared" si="121"/>
-        <v>359</v>
+        <v>477</v>
       </c>
       <c r="AD8" s="15">
         <f t="shared" si="121"/>
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="AE8" s="15">
         <f t="shared" si="121"/>
@@ -2808,11 +2808,11 @@
       </c>
       <c r="AI8" s="15">
         <f t="shared" si="121"/>
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="AJ8" s="15">
         <f t="shared" si="121"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AK8" s="15">
         <f t="shared" si="121"/>
@@ -2904,118 +2904,118 @@
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26" t="s">
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="27"/>
+      <c r="O9" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26" t="s">
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26" t="s">
+      <c r="R9" s="27"/>
+      <c r="S9" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26" t="s">
+      <c r="T9" s="27"/>
+      <c r="U9" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26" t="s">
+      <c r="V9" s="27"/>
+      <c r="W9" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26" t="s">
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26" t="s">
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26" t="s">
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26" t="s">
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26" t="s">
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="AH9" s="26"/>
-      <c r="AI9" s="26" t="s">
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="AJ9" s="26"/>
-      <c r="AK9" s="26" t="s">
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="AL9" s="26"/>
-      <c r="AM9" s="27" t="s">
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AN9" s="27"/>
-      <c r="AO9" s="27" t="s">
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="AP9" s="27"/>
-      <c r="AQ9" s="27" t="s">
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="AR9" s="27"/>
-      <c r="AS9" s="27" t="s">
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="AT9" s="27"/>
-      <c r="AU9" s="27" t="s">
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="AV9" s="27"/>
-      <c r="AW9" s="27" t="s">
+      <c r="AV9" s="26"/>
+      <c r="AW9" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="AX9" s="27"/>
-      <c r="AY9" s="27" t="s">
+      <c r="AX9" s="26"/>
+      <c r="AY9" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="AZ9" s="27"/>
-      <c r="BA9" s="26" t="s">
+      <c r="AZ9" s="26"/>
+      <c r="BA9" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="BB9" s="26"/>
-      <c r="BC9" s="26" t="s">
+      <c r="BB9" s="27"/>
+      <c r="BC9" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="BD9" s="26"/>
-      <c r="BE9" s="26" t="s">
+      <c r="BD9" s="27"/>
+      <c r="BE9" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="BF9" s="26"/>
+      <c r="BF9" s="27"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -3056,10 +3056,64 @@
       <c r="B17" s="1">
         <v>117</v>
       </c>
+      <c r="C17" s="1">
+        <v>22</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>3</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>49</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>28</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>116</v>
+      </c>
+      <c r="C18" s="1">
+        <v>130</v>
+      </c>
+      <c r="D18" s="1">
+        <v>12</v>
+      </c>
+      <c r="M18" s="1">
+        <v>45</v>
+      </c>
+      <c r="N18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>69</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>12</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>31</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.3">
@@ -4718,13 +4772,13 @@
         <v>4</v>
       </c>
       <c r="BM59" s="1" t="str">
-        <v>Tom</v>
+        <v>Joachim</v>
       </c>
       <c r="BN59" s="1" t="str">
-        <v>6.205</v>
+        <v>6.202</v>
       </c>
       <c r="BO59" s="1">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="BQ59" s="1">
         <v>4</v>
@@ -4739,10 +4793,10 @@
         <v>5</v>
       </c>
       <c r="BV59" s="1" t="str">
-        <v>Tom</v>
+        <v>Joachim</v>
       </c>
       <c r="BW59" s="1">
-        <v>6.2052631578947368</v>
+        <v>6.2019230769230766</v>
       </c>
     </row>
     <row r="60" spans="1:75" x14ac:dyDescent="0.3">
@@ -4784,13 +4838,13 @@
         <v>5</v>
       </c>
       <c r="BM60" s="1" t="str">
-        <v>Joachim</v>
+        <v>Tom</v>
       </c>
       <c r="BN60" s="1" t="str">
-        <v>6.202</v>
+        <v>6.109</v>
       </c>
       <c r="BO60" s="1">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="BQ60" s="1">
         <v>5</v>
@@ -4805,10 +4859,10 @@
         <v>17</v>
       </c>
       <c r="BV60" s="1" t="str">
-        <v>Joachim</v>
+        <v>Tom</v>
       </c>
       <c r="BW60" s="1">
-        <v>6.2019230769230766</v>
+        <v>6.1088082901554408</v>
       </c>
     </row>
     <row r="61" spans="1:75" x14ac:dyDescent="0.3">
@@ -4916,13 +4970,13 @@
         <v>7</v>
       </c>
       <c r="BM62" s="1" t="str">
-        <v>Célian</v>
+        <v>Samuel</v>
       </c>
       <c r="BN62" s="1" t="str">
-        <v>5.949</v>
+        <v>5.910</v>
       </c>
       <c r="BO62" s="1">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="BQ62" s="1">
         <v>7</v>
@@ -4937,10 +4991,10 @@
         <v>5</v>
       </c>
       <c r="BV62" s="1" t="str">
-        <v>Célian</v>
+        <v>Samuel</v>
       </c>
       <c r="BW62" s="1">
-        <v>5.9492385786802027</v>
+        <v>5.9099526066350707</v>
       </c>
     </row>
     <row r="63" spans="1:75" x14ac:dyDescent="0.3">
@@ -4978,13 +5032,13 @@
         <v>8</v>
       </c>
       <c r="BM63" s="1" t="str">
-        <v>Samuel</v>
+        <v>Célian</v>
       </c>
       <c r="BN63" s="1" t="str">
-        <v>5.910</v>
+        <v>5.860</v>
       </c>
       <c r="BO63" s="1">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="BQ63" s="1">
         <v>8</v>
@@ -4999,10 +5053,10 @@
         <v>11</v>
       </c>
       <c r="BV63" s="1" t="str">
-        <v>Samuel</v>
+        <v>Célian</v>
       </c>
       <c r="BW63" s="1">
-        <v>5.9099526066350707</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="64" spans="1:75" x14ac:dyDescent="0.3">
@@ -5199,16 +5253,16 @@
         <v>Achille</v>
       </c>
       <c r="BN65" s="1" t="str">
-        <v>5.259</v>
+        <v>5.350</v>
       </c>
       <c r="BO65" s="1">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="BV65" s="1" t="str">
         <v>Achille</v>
       </c>
       <c r="BW65" s="1">
-        <v>5.2585987261146494</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="66" spans="1:75" x14ac:dyDescent="0.3">
@@ -5294,16 +5348,16 @@
         <v>Damien</v>
       </c>
       <c r="BN66" s="1" t="str">
-        <v>5.162</v>
+        <v>5.128</v>
       </c>
       <c r="BO66" s="1">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="BV66" s="1" t="str">
         <v>Damien</v>
       </c>
       <c r="BW66" s="1">
-        <v>5.1622176591375766</v>
+        <v>5.1282565130260522</v>
       </c>
     </row>
     <row r="67" spans="1:75" x14ac:dyDescent="0.3">
@@ -5478,7 +5532,7 @@
       </c>
       <c r="BJ68" s="1">
         <f>AVERAGE(C1:BF1)</f>
-        <v>4.9991291333045673</v>
+        <v>5.0389184184911571</v>
       </c>
       <c r="BL68" s="1">
         <v>13</v>
@@ -5487,16 +5541,16 @@
         <v>Jules</v>
       </c>
       <c r="BN68" s="1" t="str">
-        <v>4.261</v>
+        <v>4.740</v>
       </c>
       <c r="BO68" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="BV68" s="1" t="str">
         <v>Jules</v>
       </c>
       <c r="BW68" s="1">
-        <v>4.2613636363636367</v>
+        <v>4.740384615384615</v>
       </c>
     </row>
     <row r="69" spans="1:75" x14ac:dyDescent="0.3">
@@ -5965,16 +6019,16 @@
         <v>Fantinne</v>
       </c>
       <c r="BN73" s="1" t="str">
-        <v>2.556</v>
+        <v>2.961</v>
       </c>
       <c r="BO73" s="1">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="BV73" s="1" t="str">
         <v>Fantinne</v>
       </c>
       <c r="BW73" s="1">
-        <v>2.5555555555555554</v>
+        <v>2.9607843137254903</v>
       </c>
     </row>
     <row r="74" spans="1:75" x14ac:dyDescent="0.3">
@@ -7439,13 +7493,13 @@
         <v>4</v>
       </c>
       <c r="BW91" s="1" t="str">
-        <v>Tom</v>
+        <v>Joachim</v>
       </c>
       <c r="BX91" s="1">
-        <v>6.2050000000000001</v>
+        <v>6.202</v>
       </c>
       <c r="BY91" s="1">
-        <v>190</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:77" x14ac:dyDescent="0.3">
@@ -7524,13 +7578,13 @@
         <v>5</v>
       </c>
       <c r="BW92" s="1" t="str">
-        <v>Joachim</v>
+        <v>Tom</v>
       </c>
       <c r="BX92" s="1">
-        <v>6.202</v>
+        <v>6.109</v>
       </c>
       <c r="BY92" s="1">
-        <v>104</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:77" x14ac:dyDescent="0.3">
@@ -7694,13 +7748,13 @@
         <v>7</v>
       </c>
       <c r="BW94" s="1" t="str">
-        <v>Célian</v>
+        <v>Samuel</v>
       </c>
       <c r="BX94" s="1">
-        <v>5.9489999999999998</v>
+        <v>5.91</v>
       </c>
       <c r="BY94" s="1">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="1:77" x14ac:dyDescent="0.3">
@@ -7784,13 +7838,13 @@
         <v>8</v>
       </c>
       <c r="BW95" s="1" t="str">
-        <v>Samuel</v>
+        <v>Célian</v>
       </c>
       <c r="BX95" s="1">
-        <v>5.91</v>
+        <v>5.86</v>
       </c>
       <c r="BY95" s="1">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="1:77" x14ac:dyDescent="0.3">
@@ -7965,10 +8019,10 @@
         <v>Achille</v>
       </c>
       <c r="BX97" s="1">
-        <v>5.2590000000000003</v>
+        <v>5.35</v>
       </c>
       <c r="BY97" s="1">
-        <v>785</v>
+        <v>800</v>
       </c>
     </row>
     <row r="98" spans="1:77" x14ac:dyDescent="0.3">
@@ -8050,10 +8104,10 @@
         <v>Damien</v>
       </c>
       <c r="BX98" s="1">
-        <v>5.1619999999999999</v>
+        <v>5.1280000000000001</v>
       </c>
       <c r="BY98" s="1">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:77" x14ac:dyDescent="0.3">
@@ -8216,10 +8270,10 @@
         <v>Jules</v>
       </c>
       <c r="BX100" s="1">
-        <v>4.2610000000000001</v>
+        <v>4.74</v>
       </c>
       <c r="BY100" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:77" x14ac:dyDescent="0.3">
@@ -8653,10 +8707,10 @@
         <v>Fantinne</v>
       </c>
       <c r="BX105" s="1">
-        <v>2.556</v>
+        <v>2.9609999999999999</v>
       </c>
       <c r="BY105" s="1">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" spans="1:77" x14ac:dyDescent="0.3">
@@ -9521,13 +9575,13 @@
       <c r="AX116" s="15"/>
       <c r="AY116" s="15"/>
       <c r="BV116" s="1" t="str">
-        <v>Tom</v>
+        <v>Joachim</v>
       </c>
       <c r="BW116" s="1">
-        <v>6.2052631578947368</v>
+        <v>6.2019230769230766</v>
       </c>
       <c r="BX116" s="1">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="CA116" s="1" t="str">
         <v>Lou</v>
@@ -9609,19 +9663,19 @@
       <c r="AX117" s="15"/>
       <c r="AY117" s="15"/>
       <c r="BV117" s="1" t="str">
+        <v>Tom</v>
+      </c>
+      <c r="BW117" s="1">
+        <v>6.1088082901554408</v>
+      </c>
+      <c r="BX117" s="1">
+        <v>193</v>
+      </c>
+      <c r="CA117" s="1" t="str">
         <v>Joachim</v>
       </c>
-      <c r="BW117" s="1">
+      <c r="CB117" s="1">
         <v>6.2019230769230766</v>
-      </c>
-      <c r="BX117" s="1">
-        <v>104</v>
-      </c>
-      <c r="CA117" s="1" t="str">
-        <v>Tom</v>
-      </c>
-      <c r="CB117" s="1">
-        <v>6.2052631578947368</v>
       </c>
     </row>
     <row r="118" spans="1:80" x14ac:dyDescent="0.3">
@@ -9706,10 +9760,10 @@
         <v>29</v>
       </c>
       <c r="CA118" s="1" t="str">
-        <v>Joachim</v>
+        <v>Tom</v>
       </c>
       <c r="CB118" s="1">
-        <v>6.2019230769230766</v>
+        <v>6.1088082901554408</v>
       </c>
     </row>
     <row r="119" spans="1:80" x14ac:dyDescent="0.3">
@@ -9785,13 +9839,13 @@
       <c r="AX119" s="15"/>
       <c r="AY119" s="15"/>
       <c r="BV119" s="1" t="str">
-        <v>Célian</v>
+        <v>Samuel</v>
       </c>
       <c r="BW119" s="1">
-        <v>5.9492385786802027</v>
+        <v>5.9099526066350707</v>
       </c>
       <c r="BX119" s="1">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="CA119" s="1" t="str">
         <v>William</v>
@@ -9873,19 +9927,19 @@
       <c r="AX120" s="15"/>
       <c r="AY120" s="15"/>
       <c r="BV120" s="1" t="str">
+        <v>Célian</v>
+      </c>
+      <c r="BW120" s="1">
+        <v>5.86</v>
+      </c>
+      <c r="BX120" s="1">
+        <v>200</v>
+      </c>
+      <c r="CA120" s="1" t="str">
         <v>Samuel</v>
       </c>
-      <c r="BW120" s="1">
+      <c r="CB120" s="1">
         <v>5.9099526066350707</v>
-      </c>
-      <c r="BX120" s="1">
-        <v>211</v>
-      </c>
-      <c r="CA120" s="1" t="str">
-        <v>Célian</v>
-      </c>
-      <c r="CB120" s="1">
-        <v>5.9492385786802027</v>
       </c>
     </row>
     <row r="121" spans="1:80" x14ac:dyDescent="0.3">
@@ -9974,10 +10028,10 @@
         <v>421</v>
       </c>
       <c r="CA121" s="1" t="str">
-        <v>Samuel</v>
+        <v>Célian</v>
       </c>
       <c r="CB121" s="1">
-        <v>5.9099526066350707</v>
+        <v>5.86</v>
       </c>
     </row>
     <row r="122" spans="1:80" x14ac:dyDescent="0.3">
@@ -10056,10 +10110,10 @@
         <v>Achille</v>
       </c>
       <c r="BW122" s="1">
-        <v>5.2585987261146494</v>
+        <v>5.35</v>
       </c>
       <c r="BX122" s="1">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="CA122" s="1" t="str">
         <v>Mehdi</v>
@@ -10079,16 +10133,16 @@
         <v>Damien</v>
       </c>
       <c r="BW123" s="1">
-        <v>5.1622176591375766</v>
+        <v>5.1282565130260522</v>
       </c>
       <c r="BX123" s="1">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="CA123" s="1" t="str">
         <v>Achille</v>
       </c>
       <c r="CB123" s="1">
-        <v>5.2585987261146494</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="124" spans="1:80" x14ac:dyDescent="0.3">
@@ -10135,7 +10189,7 @@
         <v>Damien</v>
       </c>
       <c r="CB124" s="1">
-        <v>5.1622176591375766</v>
+        <v>5.1282565130260522</v>
       </c>
     </row>
     <row r="125" spans="1:80" x14ac:dyDescent="0.3">
@@ -10173,10 +10227,10 @@
         <v>Jules</v>
       </c>
       <c r="BW125" s="1">
-        <v>4.2613636363636367</v>
+        <v>4.740384615384615</v>
       </c>
       <c r="BX125" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="CA125" s="1" t="str">
         <v>Paul</v>
@@ -10229,7 +10283,7 @@
         <v>Jules</v>
       </c>
       <c r="CB126" s="1">
-        <v>4.2613636363636367</v>
+        <v>4.740384615384615</v>
       </c>
     </row>
     <row r="127" spans="1:80" x14ac:dyDescent="0.3">
@@ -10408,10 +10462,10 @@
         <v>Fantinne</v>
       </c>
       <c r="BW130" s="1">
-        <v>2.5555555555555554</v>
+        <v>2.9607843137254903</v>
       </c>
       <c r="BX130" s="1">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="CA130" s="1" t="str">
         <v>Luca</v>
@@ -10464,7 +10518,7 @@
         <v>Fantinne</v>
       </c>
       <c r="CB131" s="1">
-        <v>2.5555555555555554</v>
+        <v>2.9607843137254903</v>
       </c>
     </row>
     <row r="132" spans="1:80" x14ac:dyDescent="0.3">
@@ -10606,18 +10660,6 @@
     <sortCondition descending="1" ref="B124:B135"/>
   </sortState>
   <mergeCells count="28">
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BC9:BD9"/>
     <mergeCell ref="BE9:BF9"/>
@@ -10634,6 +10676,18 @@
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="AW9:AX9"/>
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
   </mergeCells>
   <conditionalFormatting sqref="C1 E1 G1 I1 K1 M1 O1 Q1 S1 U1 W1 Y1 AA1 AC1 AE1 AG1 AI1 AK1 AM1 AO1 AQ1 AS1 AU1 AW1 AY1 BA1 BC1 BE1 C9:AM9 AO9 AQ9 AS9 AU9 AW9 AY9 BA9 BC9 BE9">
     <cfRule type="expression" dxfId="24" priority="41" stopIfTrue="1">
@@ -10736,8 +10790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D977F6-AD3F-47F0-926D-61192148887D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10842,13 +10896,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="25" t="str">
-        <v>Tom</v>
+        <v>Joachim</v>
       </c>
       <c r="C5" s="25" t="str">
-        <v>6.205</v>
+        <v>6.202</v>
       </c>
       <c r="D5" s="25">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="F5" t="str">
         <v>entre 20 et 50</v>
@@ -10866,13 +10920,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="25" t="str">
-        <v>Joachim</v>
+        <v>Tom</v>
       </c>
       <c r="C6" s="25" t="str">
-        <v>6.202</v>
+        <v>6.109</v>
       </c>
       <c r="D6" s="25">
-        <v>104</v>
+        <v>193</v>
       </c>
       <c r="F6" t="str">
         <v>entre 50 et 100</v>
@@ -10914,13 +10968,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="25" t="str">
-        <v>Célian</v>
+        <v>Samuel</v>
       </c>
       <c r="C8" s="25" t="str">
-        <v>5.949</v>
+        <v>5.910</v>
       </c>
       <c r="D8" s="25">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F8" t="str">
         <v>entre 250 et 500</v>
@@ -10938,13 +10992,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="25" t="str">
-        <v>Samuel</v>
+        <v>Célian</v>
       </c>
       <c r="C9" s="25" t="str">
-        <v>5.910</v>
+        <v>5.860</v>
       </c>
       <c r="D9" s="25">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F9" t="str">
         <v>entre 500 et 1000</v>
@@ -10989,10 +11043,10 @@
         <v>Achille</v>
       </c>
       <c r="C11" s="25" t="str">
-        <v>5.259</v>
+        <v>5.350</v>
       </c>
       <c r="D11" s="25">
-        <v>785</v>
+        <v>800</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -11003,10 +11057,10 @@
         <v>Damien</v>
       </c>
       <c r="C12" s="25" t="str">
-        <v>5.162</v>
+        <v>5.128</v>
       </c>
       <c r="D12" s="25">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11031,10 +11085,10 @@
         <v>Jules</v>
       </c>
       <c r="C14" s="25" t="str">
-        <v>4.261</v>
+        <v>4.740</v>
       </c>
       <c r="D14" s="25">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -11101,10 +11155,10 @@
         <v>Fantinne</v>
       </c>
       <c r="C19" s="25" t="str">
-        <v>2.556</v>
+        <v>2.961</v>
       </c>
       <c r="D19" s="25">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">

--- a/classement_whist_2023_2025.xlsx
+++ b/classement_whist_2023_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a20b8382962b136a/Bureau/loisir/whist/projet_application_streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="570" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{481F6B57-3215-4E63-9CE5-6030E64E4DA9}"/>
+  <xr:revisionPtr revIDLastSave="579" documentId="8_{848EF4F6-53E4-4B52-9417-5BFB5A888B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8C0C5B9-9B2F-44BB-A36B-F96A84A4FEC2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All stat" sheetId="1" r:id="rId1"/>
@@ -585,10 +585,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1127,8 +1127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CB135"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1175,7 +1175,7 @@
       </c>
       <c r="G1" s="1">
         <f t="shared" ref="G1" si="2">IF(H2&gt;19,G2/H2,"/")</f>
-        <v>7.1894343649946642</v>
+        <v>7.1698412698412701</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="M1" s="1">
         <f t="shared" ref="M1" si="5">IF(N2&gt;19,M2/N2,"/")</f>
-        <v>5.1282565130260522</v>
+        <v>5.1538461538461542</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>2</v>
@@ -1252,7 +1252,7 @@
       </c>
       <c r="AC1" s="1">
         <f>IF(AD2&gt;19,AC2/AD2,"/")</f>
-        <v>4.740384615384615</v>
+        <v>4.7053571428571432</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>2</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="AQ1" s="1">
         <f t="shared" ref="AQ1" si="19">IF(AR2&gt;19,AQ2/AR2,"/")</f>
-        <v>3.0263157894736841</v>
+        <v>3.847826086956522</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
@@ -1378,11 +1378,11 @@
       </c>
       <c r="G2" s="1">
         <f t="shared" si="27"/>
-        <v>6736.5</v>
+        <v>6775.5</v>
       </c>
       <c r="H2" s="1">
         <f t="shared" si="27"/>
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="I2" s="1">
         <f t="shared" si="27"/>
@@ -1402,11 +1402,11 @@
       </c>
       <c r="M2" s="1">
         <f t="shared" si="28"/>
-        <v>2559</v>
+        <v>2613</v>
       </c>
       <c r="N2" s="1">
         <f t="shared" si="28"/>
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="O2" s="1">
         <f t="shared" si="28"/>
@@ -1466,11 +1466,11 @@
       </c>
       <c r="AC2" s="1">
         <f t="shared" si="28"/>
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="AD2" s="1">
         <f t="shared" si="28"/>
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="AE2" s="1">
         <f t="shared" si="28"/>
@@ -1522,11 +1522,11 @@
       </c>
       <c r="AQ2" s="1">
         <f t="shared" si="28"/>
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="AR2" s="1">
         <f t="shared" si="28"/>
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AS2" s="1">
         <f t="shared" si="28"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="G7" s="15">
         <f t="shared" ref="G7" si="94">G8/H8</f>
-        <v>7.4842233009708741</v>
+        <v>7.4345238095238093</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>2</v>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="M7" s="15">
         <f t="shared" ref="M7" si="97">M8/N8</f>
-        <v>5.604501607717042</v>
+        <v>5.6332288401253923</v>
       </c>
       <c r="N7" s="15" t="s">
         <v>2</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="AC7" s="15">
         <f t="shared" ref="AC7" si="105">AC8/AD8</f>
-        <v>5.0744680851063828</v>
+        <v>5.0098039215686274</v>
       </c>
       <c r="AD7" s="15" t="s">
         <v>2</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="AQ7" s="15">
         <f t="shared" ref="AQ7" si="112">AQ8/AR8</f>
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="AR7" s="15" t="s">
         <v>2</v>
@@ -2696,11 +2696,11 @@
       </c>
       <c r="G8" s="15">
         <f t="shared" si="120"/>
-        <v>3083.5</v>
+        <v>3122.5</v>
       </c>
       <c r="H8" s="15">
         <f t="shared" si="120"/>
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="I8" s="15">
         <f t="shared" si="120"/>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="M8" s="15">
         <f t="shared" si="121"/>
-        <v>1743</v>
+        <v>1797</v>
       </c>
       <c r="N8" s="15">
         <f t="shared" si="121"/>
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="O8" s="15">
         <f t="shared" si="121"/>
@@ -2784,11 +2784,11 @@
       </c>
       <c r="AC8" s="15">
         <f t="shared" si="121"/>
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="AD8" s="15">
         <f t="shared" si="121"/>
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="AE8" s="15">
         <f t="shared" si="121"/>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="AQ8" s="15">
         <f t="shared" si="121"/>
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="AR8" s="15">
         <f t="shared" si="121"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AS8" s="15">
         <f t="shared" si="121"/>
@@ -2904,118 +2904,118 @@
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27" t="s">
+      <c r="F9" s="26"/>
+      <c r="G9" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27" t="s">
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27" t="s">
+      <c r="J9" s="26"/>
+      <c r="K9" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27" t="s">
+      <c r="N9" s="26"/>
+      <c r="O9" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27" t="s">
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27" t="s">
+      <c r="R9" s="26"/>
+      <c r="S9" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27" t="s">
+      <c r="T9" s="26"/>
+      <c r="U9" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27" t="s">
+      <c r="V9" s="26"/>
+      <c r="W9" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27" t="s">
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27" t="s">
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27" t="s">
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27" t="s">
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="AF9" s="27"/>
-      <c r="AG9" s="27" t="s">
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="AH9" s="27"/>
-      <c r="AI9" s="27" t="s">
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AJ9" s="27"/>
-      <c r="AK9" s="27" t="s">
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="AL9" s="27"/>
-      <c r="AM9" s="26" t="s">
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="AN9" s="26"/>
-      <c r="AO9" s="26" t="s">
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="AP9" s="26"/>
-      <c r="AQ9" s="26" t="s">
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="AR9" s="26"/>
-      <c r="AS9" s="26" t="s">
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="AT9" s="26"/>
-      <c r="AU9" s="26" t="s">
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="AV9" s="26"/>
-      <c r="AW9" s="26" t="s">
+      <c r="AV9" s="27"/>
+      <c r="AW9" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AX9" s="26"/>
-      <c r="AY9" s="26" t="s">
+      <c r="AX9" s="27"/>
+      <c r="AY9" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="AZ9" s="26"/>
-      <c r="BA9" s="27" t="s">
+      <c r="AZ9" s="27"/>
+      <c r="BA9" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="BB9" s="27"/>
-      <c r="BC9" s="27" t="s">
+      <c r="BB9" s="26"/>
+      <c r="BC9" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="BD9" s="27"/>
-      <c r="BE9" s="27" t="s">
+      <c r="BD9" s="26"/>
+      <c r="BE9" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="BF9" s="27"/>
+      <c r="BF9" s="26"/>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -3050,6 +3050,30 @@
     <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>118</v>
+      </c>
+      <c r="G16" s="1">
+        <v>39</v>
+      </c>
+      <c r="H16" s="1">
+        <v>8</v>
+      </c>
+      <c r="M16" s="1">
+        <v>54</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>34</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>62</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:58" x14ac:dyDescent="0.3">
@@ -4647,10 +4671,10 @@
         <v>Boris</v>
       </c>
       <c r="BN57" s="1" t="str">
-        <v>7.189</v>
+        <v>7.170</v>
       </c>
       <c r="BO57" s="1">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="BQ57" s="1">
         <v>2</v>
@@ -4668,7 +4692,7 @@
         <v>Boris</v>
       </c>
       <c r="BW57" s="1">
-        <v>7.1894343649946642</v>
+        <v>7.1698412698412701</v>
       </c>
     </row>
     <row r="58" spans="1:75" x14ac:dyDescent="0.3">
@@ -5348,16 +5372,16 @@
         <v>Damien</v>
       </c>
       <c r="BN66" s="1" t="str">
-        <v>5.128</v>
+        <v>5.154</v>
       </c>
       <c r="BO66" s="1">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="BV66" s="1" t="str">
         <v>Damien</v>
       </c>
       <c r="BW66" s="1">
-        <v>5.1282565130260522</v>
+        <v>5.1538461538461542</v>
       </c>
     </row>
     <row r="67" spans="1:75" x14ac:dyDescent="0.3">
@@ -5532,7 +5556,7 @@
       </c>
       <c r="BJ68" s="1">
         <f>AVERAGE(C1:BF1)</f>
-        <v>5.0389184184911571</v>
+        <v>5.0806278590502147</v>
       </c>
       <c r="BL68" s="1">
         <v>13</v>
@@ -5541,16 +5565,16 @@
         <v>Jules</v>
       </c>
       <c r="BN68" s="1" t="str">
-        <v>4.740</v>
+        <v>4.705</v>
       </c>
       <c r="BO68" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="BV68" s="1" t="str">
         <v>Jules</v>
       </c>
       <c r="BW68" s="1">
-        <v>4.740384615384615</v>
+        <v>4.7053571428571432</v>
       </c>
     </row>
     <row r="69" spans="1:75" x14ac:dyDescent="0.3">
@@ -5724,19 +5748,19 @@
         <v>15</v>
       </c>
       <c r="BM70" s="1" t="str">
-        <v>Joey</v>
+        <v>Quentin</v>
       </c>
       <c r="BN70" s="1" t="str">
-        <v>3.033</v>
+        <v>3.848</v>
       </c>
       <c r="BO70" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="BV70" s="1" t="str">
-        <v>Joey</v>
+        <v>Quentin</v>
       </c>
       <c r="BW70" s="1">
-        <v>3.0333333333333332</v>
+        <v>3.847826086956522</v>
       </c>
     </row>
     <row r="71" spans="1:75" x14ac:dyDescent="0.3">
@@ -5818,19 +5842,19 @@
         <v>16</v>
       </c>
       <c r="BM71" s="1" t="str">
-        <v>Quentin</v>
+        <v>Joey</v>
       </c>
       <c r="BN71" s="1" t="str">
-        <v>3.026</v>
+        <v>3.033</v>
       </c>
       <c r="BO71" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="BV71" s="1" t="str">
-        <v>Quentin</v>
+        <v>Joey</v>
       </c>
       <c r="BW71" s="1">
-        <v>3.0263157894736841</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="72" spans="1:75" x14ac:dyDescent="0.3">
@@ -7322,10 +7346,10 @@
         <v>Boris</v>
       </c>
       <c r="BX89" s="1">
-        <v>7.1890000000000001</v>
+        <v>7.17</v>
       </c>
       <c r="BY89" s="1">
-        <v>937</v>
+        <v>945</v>
       </c>
     </row>
     <row r="90" spans="1:77" x14ac:dyDescent="0.3">
@@ -8104,10 +8128,10 @@
         <v>Damien</v>
       </c>
       <c r="BX98" s="1">
-        <v>5.1280000000000001</v>
+        <v>5.1539999999999999</v>
       </c>
       <c r="BY98" s="1">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:77" x14ac:dyDescent="0.3">
@@ -8270,10 +8294,10 @@
         <v>Jules</v>
       </c>
       <c r="BX100" s="1">
-        <v>4.74</v>
+        <v>4.7050000000000001</v>
       </c>
       <c r="BY100" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:77" x14ac:dyDescent="0.3">
@@ -8441,13 +8465,13 @@
         <v>15</v>
       </c>
       <c r="BW102" s="1" t="str">
-        <v>Joey</v>
+        <v>Quentin</v>
       </c>
       <c r="BX102" s="1">
-        <v>3.0329999999999999</v>
+        <v>3.8479999999999999</v>
       </c>
       <c r="BY102" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:77" x14ac:dyDescent="0.3">
@@ -8526,13 +8550,13 @@
         <v>16</v>
       </c>
       <c r="BW103" s="1" t="str">
-        <v>Quentin</v>
+        <v>Joey</v>
       </c>
       <c r="BX103" s="1">
-        <v>3.0259999999999998</v>
+        <v>3.0329999999999999</v>
       </c>
       <c r="BY103" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" spans="1:77" x14ac:dyDescent="0.3">
@@ -9490,16 +9514,16 @@
         <v>Boris</v>
       </c>
       <c r="BW115" s="1">
-        <v>7.1894343649946642</v>
+        <v>7.1698412698412701</v>
       </c>
       <c r="BX115" s="1">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="CA115" s="1" t="str">
         <v>Boris</v>
       </c>
       <c r="CB115" s="1">
-        <v>7.1894343649946642</v>
+        <v>7.1698412698412701</v>
       </c>
     </row>
     <row r="116" spans="1:80" x14ac:dyDescent="0.3">
@@ -10133,10 +10157,10 @@
         <v>Damien</v>
       </c>
       <c r="BW123" s="1">
-        <v>5.1282565130260522</v>
+        <v>5.1538461538461542</v>
       </c>
       <c r="BX123" s="1">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="CA123" s="1" t="str">
         <v>Achille</v>
@@ -10189,7 +10213,7 @@
         <v>Damien</v>
       </c>
       <c r="CB124" s="1">
-        <v>5.1282565130260522</v>
+        <v>5.1538461538461542</v>
       </c>
     </row>
     <row r="125" spans="1:80" x14ac:dyDescent="0.3">
@@ -10227,10 +10251,10 @@
         <v>Jules</v>
       </c>
       <c r="BW125" s="1">
-        <v>4.740384615384615</v>
+        <v>4.7053571428571432</v>
       </c>
       <c r="BX125" s="1">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="CA125" s="1" t="str">
         <v>Paul</v>
@@ -10283,7 +10307,7 @@
         <v>Jules</v>
       </c>
       <c r="CB126" s="1">
-        <v>4.740384615384615</v>
+        <v>4.7053571428571432</v>
       </c>
     </row>
     <row r="127" spans="1:80" x14ac:dyDescent="0.3">
@@ -10318,13 +10342,13 @@
         <v>9</v>
       </c>
       <c r="BV127" s="1" t="str">
-        <v>Joey</v>
+        <v>Quentin</v>
       </c>
       <c r="BW127" s="1">
-        <v>3.0333333333333332</v>
+        <v>3.847826086956522</v>
       </c>
       <c r="BX127" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="CA127" s="1" t="str">
         <v>Marie</v>
@@ -10365,19 +10389,19 @@
         <v>12</v>
       </c>
       <c r="BV128" s="1" t="str">
+        <v>Joey</v>
+      </c>
+      <c r="BW128" s="1">
+        <v>3.0333333333333332</v>
+      </c>
+      <c r="BX128" s="1">
+        <v>30</v>
+      </c>
+      <c r="CA128" s="1" t="str">
         <v>Quentin</v>
       </c>
-      <c r="BW128" s="1">
-        <v>3.0263157894736841</v>
-      </c>
-      <c r="BX128" s="1">
-        <v>38</v>
-      </c>
-      <c r="CA128" s="1" t="str">
-        <v>Joey</v>
-      </c>
       <c r="CB128" s="1">
-        <v>3.0333333333333332</v>
+        <v>3.847826086956522</v>
       </c>
     </row>
     <row r="129" spans="1:80" x14ac:dyDescent="0.3">
@@ -10421,10 +10445,10 @@
         <v>156</v>
       </c>
       <c r="CA129" s="1" t="str">
-        <v>Quentin</v>
+        <v>Joey</v>
       </c>
       <c r="CB129" s="1">
-        <v>3.0263157894736841</v>
+        <v>3.0333333333333332</v>
       </c>
     </row>
     <row r="130" spans="1:80" x14ac:dyDescent="0.3">
@@ -10660,6 +10684,18 @@
     <sortCondition descending="1" ref="B124:B135"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="AY9:AZ9"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AP9"/>
+    <mergeCell ref="AQ9:AR9"/>
+    <mergeCell ref="AS9:AT9"/>
+    <mergeCell ref="AU9:AV9"/>
     <mergeCell ref="BA9:BB9"/>
     <mergeCell ref="BC9:BD9"/>
     <mergeCell ref="BE9:BF9"/>
@@ -10676,18 +10712,6 @@
     <mergeCell ref="U9:V9"/>
     <mergeCell ref="W9:X9"/>
     <mergeCell ref="AW9:AX9"/>
-    <mergeCell ref="AY9:AZ9"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AP9"/>
-    <mergeCell ref="AQ9:AR9"/>
-    <mergeCell ref="AS9:AT9"/>
-    <mergeCell ref="AU9:AV9"/>
   </mergeCells>
   <conditionalFormatting sqref="C1 E1 G1 I1 K1 M1 O1 Q1 S1 U1 W1 Y1 AA1 AC1 AE1 AG1 AI1 AK1 AM1 AO1 AQ1 AS1 AU1 AW1 AY1 BA1 BC1 BE1 C9:AM9 AO9 AQ9 AS9 AU9 AW9 AY9 BA9 BC9 BE9">
     <cfRule type="expression" dxfId="24" priority="41" stopIfTrue="1">
@@ -10790,8 +10814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D977F6-AD3F-47F0-926D-61192148887D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="122" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10850,10 +10874,10 @@
         <v>Boris</v>
       </c>
       <c r="C3" s="25" t="str">
-        <v>7.189</v>
+        <v>7.170</v>
       </c>
       <c r="D3" s="25">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="F3" t="str">
         <v>entre 1 et 10</v>
@@ -11057,10 +11081,10 @@
         <v>Damien</v>
       </c>
       <c r="C12" s="25" t="str">
-        <v>5.128</v>
+        <v>5.154</v>
       </c>
       <c r="D12" s="25">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -11085,10 +11109,10 @@
         <v>Jules</v>
       </c>
       <c r="C14" s="25" t="str">
-        <v>4.740</v>
+        <v>4.705</v>
       </c>
       <c r="D14" s="25">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -11110,13 +11134,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="25" t="str">
-        <v>Joey</v>
+        <v>Quentin</v>
       </c>
       <c r="C16" s="25" t="str">
-        <v>3.033</v>
+        <v>3.848</v>
       </c>
       <c r="D16" s="25">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -11124,13 +11148,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="25" t="str">
-        <v>Quentin</v>
+        <v>Joey</v>
       </c>
       <c r="C17" s="25" t="str">
-        <v>3.026</v>
+        <v>3.033</v>
       </c>
       <c r="D17" s="25">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
